--- a/index.xlsx
+++ b/index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19185" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="953">
   <si>
     <r>
       <rPr>
@@ -47247,6 +47247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>  </t>
     </r>
     <r>
@@ -47294,6 +47300,9 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>上传中</t>
   </si>
   <si>
     <r>
@@ -53810,13 +53819,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -53824,51 +53827,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -53884,9 +53842,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -53908,9 +53880,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -53925,6 +53911,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -53932,18 +53933,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54022,7 +54031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54034,7 +54043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54046,7 +54055,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54058,7 +54079,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54082,19 +54193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54106,103 +54211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54213,6 +54222,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -54240,6 +54269,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -54257,20 +54301,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -54289,30 +54322,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -54321,10 +54330,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -54333,133 +54342,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -54832,8 +54841,8 @@
   <sheetPr/>
   <dimension ref="A1:A881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A845" workbookViewId="0">
-      <selection activeCell="A877" sqref="A877"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -59164,7 +59173,9 @@
       </c>
     </row>
     <row r="874" customFormat="1" ht="14" customHeight="1" spans="1:1">
-      <c r="A874" s="3"/>
+      <c r="A874" s="3" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="875" customFormat="1" ht="14" customHeight="1" spans="1:1">
       <c r="A875" s="3"/>
@@ -59210,142 +59221,142 @@
   <sheetData>
     <row r="1" ht="15" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -59353,47 +59364,47 @@
     </row>
     <row r="30" ht="15" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -59401,42 +59412,42 @@
     </row>
     <row r="40" ht="15" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -59444,42 +59455,42 @@
     </row>
     <row r="49" ht="15" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -59487,102 +59498,102 @@
     </row>
     <row r="58" ht="15" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -59590,27 +59601,27 @@
     </row>
     <row r="79" ht="15" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="83" ht="15" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -59618,77 +59629,77 @@
     </row>
     <row r="85" ht="15" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="93" ht="15" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -59696,157 +59707,157 @@
     </row>
     <row r="101" ht="15" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="103" ht="15" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="107" ht="15" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="109" ht="15" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="111" ht="15" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="114" ht="15" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="115" ht="15" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="123" ht="15" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="125" ht="15" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="126" ht="15" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="127" ht="15" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="129" ht="15" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="130" ht="15" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="131" ht="15" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -59854,17 +59865,17 @@
     </row>
     <row r="133" ht="15" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="135" ht="15" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="136" spans="1:1">
@@ -59872,67 +59883,67 @@
     </row>
     <row r="137" ht="15" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="138" ht="15" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="139" ht="15" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="141" ht="15" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="143" ht="15" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="144" ht="15" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="145" ht="15" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
